--- a/NetID_statistics/summary.xlsx
+++ b/NetID_statistics/summary.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20374"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D505CB9C-A4AA-4E84-B258-1D4A2A175123}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA5834DC-78DD-446D-9F0B-8EFB979522AD}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="605" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="617" uniqueCount="59">
   <si>
     <t>Total non-background peaks</t>
   </si>
@@ -195,6 +195,18 @@
   </si>
   <si>
     <t>16</t>
+  </si>
+  <si>
+    <t>HMDB</t>
+  </si>
+  <si>
+    <t>YMDB</t>
+  </si>
+  <si>
+    <t>PBCM</t>
+  </si>
+  <si>
+    <t>PBCM_BIO</t>
   </si>
 </sst>
 </file>
@@ -1467,10 +1479,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E44ECD54-8204-43CD-8715-846F0CF699FF}">
-  <dimension ref="E5:J28"/>
+  <dimension ref="E5:J38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="G15" sqref="G15:J28"/>
+    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="F35" sqref="F35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1953,6 +1965,188 @@
       <c r="J28">
         <f>Mouse_liver_pos!M26</f>
         <v>141274</v>
+      </c>
+    </row>
+    <row r="30" spans="5:10" x14ac:dyDescent="0.25">
+      <c r="G30" t="s">
+        <v>55</v>
+      </c>
+      <c r="H30" t="s">
+        <v>56</v>
+      </c>
+      <c r="I30" t="s">
+        <v>57</v>
+      </c>
+      <c r="J30" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="31" spans="5:10" x14ac:dyDescent="0.25">
+      <c r="F31" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="G31">
+        <f>Sc_neg_hmdb!M3</f>
+        <v>5588</v>
+      </c>
+      <c r="H31">
+        <f>Sc_neg_ymdb!M3</f>
+        <v>5588</v>
+      </c>
+      <c r="I31">
+        <f>Sc_neg_pbcm!M3</f>
+        <v>5588</v>
+      </c>
+      <c r="J31">
+        <f>Sc_neg_pbcm_bio!M3</f>
+        <v>5588</v>
+      </c>
+    </row>
+    <row r="32" spans="5:10" x14ac:dyDescent="0.25">
+      <c r="F32" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="G32">
+        <f>Sc_neg_hmdb!M4</f>
+        <v>931</v>
+      </c>
+      <c r="H32">
+        <f>Sc_neg_ymdb!M4</f>
+        <v>405</v>
+      </c>
+      <c r="I32">
+        <f>Sc_neg_pbcm!M4</f>
+        <v>2030</v>
+      </c>
+      <c r="J32">
+        <f>Sc_neg_pbcm_bio!M4</f>
+        <v>1412</v>
+      </c>
+    </row>
+    <row r="33" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F33" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="G33">
+        <f>Sc_neg_hmdb!M5</f>
+        <v>686</v>
+      </c>
+      <c r="H33">
+        <f>Sc_neg_ymdb!M5</f>
+        <v>953</v>
+      </c>
+      <c r="I33">
+        <f>Sc_neg_pbcm!M5</f>
+        <v>85</v>
+      </c>
+      <c r="J33">
+        <f>Sc_neg_pbcm_bio!M5</f>
+        <v>276</v>
+      </c>
+    </row>
+    <row r="34" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F34" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G34">
+        <f>Sc_neg_hmdb!M6</f>
+        <v>3225</v>
+      </c>
+      <c r="H34">
+        <f>Sc_neg_ymdb!M6</f>
+        <v>3203</v>
+      </c>
+      <c r="I34">
+        <f>Sc_neg_pbcm!M6</f>
+        <v>2892</v>
+      </c>
+      <c r="J34">
+        <f>Sc_neg_pbcm_bio!M6</f>
+        <v>3012</v>
+      </c>
+    </row>
+    <row r="35" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F35" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="G35">
+        <f>Sc_neg_hmdb!M7</f>
+        <v>746</v>
+      </c>
+      <c r="H35">
+        <f>Sc_neg_ymdb!M7</f>
+        <v>1027</v>
+      </c>
+      <c r="I35">
+        <f>Sc_neg_pbcm!M7</f>
+        <v>581</v>
+      </c>
+      <c r="J35">
+        <f>Sc_neg_pbcm_bio!M7</f>
+        <v>888</v>
+      </c>
+    </row>
+    <row r="36" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F36" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="G36">
+        <f>Sc_neg_hmdb!M8</f>
+        <v>9681</v>
+      </c>
+      <c r="H36">
+        <f>Sc_neg_ymdb!M8</f>
+        <v>8755</v>
+      </c>
+      <c r="I36">
+        <f>Sc_neg_pbcm!M8</f>
+        <v>10727</v>
+      </c>
+      <c r="J36">
+        <f>Sc_neg_pbcm_bio!M8</f>
+        <v>10363</v>
+      </c>
+    </row>
+    <row r="37" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F37" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="G37">
+        <f>Sc_neg_hmdb!M9</f>
+        <v>5392</v>
+      </c>
+      <c r="H37">
+        <f>Sc_neg_ymdb!M9</f>
+        <v>4484</v>
+      </c>
+      <c r="I37">
+        <f>Sc_neg_pbcm!M9</f>
+        <v>6727</v>
+      </c>
+      <c r="J37">
+        <f>Sc_neg_pbcm_bio!M9</f>
+        <v>6249</v>
+      </c>
+    </row>
+    <row r="38" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F38" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="G38">
+        <f>Sc_neg_hmdb!M10</f>
+        <v>4289</v>
+      </c>
+      <c r="H38">
+        <f>Sc_neg_ymdb!M10</f>
+        <v>4271</v>
+      </c>
+      <c r="I38">
+        <f>Sc_neg_pbcm!M10</f>
+        <v>4000</v>
+      </c>
+      <c r="J38">
+        <f>Sc_neg_pbcm_bio!M10</f>
+        <v>4114</v>
       </c>
     </row>
   </sheetData>
